--- a/_site/assessments/BCB744_Task_B_Name_Surname.xlsx
+++ b/_site/assessments/BCB744_Task_B_Name_Surname.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajsmit/Documents/R_local/tangled_bank/assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D0427-7E2D-AC45-9DEA-BD8BEF1D2311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044F479-C866-BD42-BE19-83A9A32F111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="7520" windowWidth="28040" windowHeight="17440" xr2:uid="{A6DFEAAA-4AB5-6E4A-B924-4A358123E90B}"/>
+    <workbookView xWindow="30920" yWindow="8840" windowWidth="28040" windowHeight="17440" xr2:uid="{A6DFEAAA-4AB5-6E4A-B924-4A358123E90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,11 +140,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,6 +169,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +508,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,9 +554,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>3</v>
       </c>
@@ -548,9 +563,7 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -559,9 +572,7 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>10</v>
       </c>
@@ -570,9 +581,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>25</v>
       </c>
@@ -581,9 +590,7 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>10</v>
       </c>
@@ -592,9 +599,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>6</v>
       </c>
@@ -603,9 +608,7 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>9</v>
       </c>
@@ -614,9 +617,7 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>3</v>
       </c>
@@ -624,39 +625,41 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>SUM(B7:B15)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <f>SUM(C7:C14)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4">
+      <c r="B20" s="4">
         <f>((B16/C16)*100)/2</f>
-        <v>14.084507042253522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4">
-        <f>SUM(C18:C20)</f>
-        <v>14.084507042253522</v>
+      <c r="B22" s="6">
+        <f>SUM(B18:B20)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
